--- a/NHL PREDICTIONS.xlsx
+++ b/NHL PREDICTIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nic\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B791C87-87B0-4DCE-819C-9385CCE5B0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0117D0-F0D8-45EA-BA8C-2E8A479FB5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24292E02-2EE0-40C4-8B7E-D5191A53C003}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="200">
   <si>
     <t>Random Forest</t>
   </si>
@@ -537,6 +537,105 @@
   </si>
   <si>
     <t>Nash vs Sanjose</t>
+  </si>
+  <si>
+    <t>24-01-2025</t>
+  </si>
+  <si>
+    <t>Flyers vs Islan</t>
+  </si>
+  <si>
+    <t>Golden vs Stars</t>
+  </si>
+  <si>
+    <t>Utah vs Jets</t>
+  </si>
+  <si>
+    <t>Light vs Black</t>
+  </si>
+  <si>
+    <t>Flyer</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>25-01-2025</t>
+  </si>
+  <si>
+    <t>Colorado vs Bost</t>
+  </si>
+  <si>
+    <t>Buff vs Oilers</t>
+  </si>
+  <si>
+    <t>NoBet</t>
+  </si>
+  <si>
+    <t>Pit vs Krak</t>
+  </si>
+  <si>
+    <t>La vs Columbus</t>
+  </si>
+  <si>
+    <t>Dallas vs St Louis</t>
+  </si>
+  <si>
+    <t>New Jersey vs Montreal</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>Nashville vs Ana</t>
+  </si>
+  <si>
+    <t>Hurricanes vs Islanders</t>
+  </si>
+  <si>
+    <t>Red wings vs tempa</t>
+  </si>
+  <si>
+    <t>Red wings</t>
+  </si>
+  <si>
+    <t>Argent utilisé provient du re-bet de Boston et Kraken</t>
+  </si>
+  <si>
+    <t>erreur j'ai bet sur bost</t>
+  </si>
+  <si>
+    <t>26-01-2025</t>
+  </si>
+  <si>
+    <t>Colorado vs New York</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Utah vs Ottawa</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>Calgary vs Jets</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Wild vs Black Hawks</t>
+  </si>
+  <si>
+    <t>Floride vs Vegas</t>
+  </si>
+  <si>
+    <t>Withdrawal 100$</t>
   </si>
 </sst>
 </file>
@@ -568,7 +667,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,6 +677,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,13 +700,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99FD346-7652-46AB-AEE9-2F50AD839A19}">
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107:F110"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2488,7 +2595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>123</v>
       </c>
@@ -2512,7 +2619,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>123</v>
       </c>
@@ -2542,7 +2649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>123</v>
       </c>
@@ -2565,7 +2672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>123</v>
       </c>
@@ -2595,7 +2702,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>123</v>
       </c>
@@ -2616,9 +2723,6 @@
       </c>
       <c r="G85">
         <v>0</v>
-      </c>
-      <c r="H85" t="s">
-        <v>137</v>
       </c>
       <c r="I85">
         <f>I84-I83</f>
@@ -2627,8 +2731,11 @@
       <c r="J85" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L85" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>123</v>
       </c>
@@ -2652,7 +2759,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>123</v>
       </c>
@@ -2676,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>139</v>
       </c>
@@ -2692,8 +2799,14 @@
       <c r="E89">
         <v>10.897126099706743</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89">
+        <v>19.46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>139</v>
       </c>
@@ -2709,8 +2822,14 @@
       <c r="E90">
         <v>13.167360703812315</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90">
+        <v>22.28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>139</v>
       </c>
@@ -2726,15 +2845,21 @@
       <c r="E91">
         <v>46.312785923753658</v>
       </c>
-      <c r="H91" t="s">
-        <v>143</v>
+      <c r="F91" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91">
+        <v>101.2</v>
       </c>
       <c r="I91" s="1"/>
       <c r="J91" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L91" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>139</v>
       </c>
@@ -2750,6 +2875,12 @@
       <c r="E92">
         <v>36.323753665689154</v>
       </c>
+      <c r="F92" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
       <c r="I92">
         <v>154.83000000000001</v>
       </c>
@@ -2757,7 +2888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>139</v>
       </c>
@@ -2773,6 +2904,9 @@
       <c r="E93" t="s">
         <v>83</v>
       </c>
+      <c r="F93" t="s">
+        <v>28</v>
+      </c>
       <c r="I93">
         <v>142</v>
       </c>
@@ -2780,7 +2914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -2795,6 +2929,12 @@
       </c>
       <c r="E94">
         <v>14.52950146627566</v>
+      </c>
+      <c r="F94" t="s">
+        <v>29</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
       </c>
       <c r="I94">
         <f>I93-I92</f>
@@ -2804,7 +2944,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>139</v>
       </c>
@@ -2820,8 +2960,14 @@
       <c r="E95">
         <v>33.599472140762458</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>139</v>
       </c>
@@ -2836,6 +2982,9 @@
       </c>
       <c r="E96" t="s">
         <v>83</v>
+      </c>
+      <c r="F96" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -2936,6 +3085,9 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I105" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J105" t="s">
         <v>30</v>
       </c>
@@ -2977,12 +3129,16 @@
         <v>0.7</v>
       </c>
       <c r="E107">
-        <f>I106*0.27</f>
-        <v>43.640100000000004</v>
-      </c>
-      <c r="F107">
-        <f>$E$113*E107</f>
         <v>37.620775862068975</v>
+      </c>
+      <c r="F107" t="s">
+        <v>28</v>
+      </c>
+      <c r="G107">
+        <v>66.22</v>
+      </c>
+      <c r="I107">
+        <v>174</v>
       </c>
       <c r="J107" t="s">
         <v>32</v>
@@ -3002,12 +3158,17 @@
         <v>0.59</v>
       </c>
       <c r="E108">
-        <f>0.34*I106</f>
-        <v>54.9542</v>
-      </c>
-      <c r="F108">
-        <f t="shared" ref="F108:F110" si="0">$E$113*E108</f>
         <v>47.374310344827592</v>
+      </c>
+      <c r="F108" t="s">
+        <v>28</v>
+      </c>
+      <c r="G108">
+        <v>108</v>
+      </c>
+      <c r="I108">
+        <f>I107-I106</f>
+        <v>12.370000000000005</v>
       </c>
       <c r="J108" t="s">
         <v>33</v>
@@ -3027,12 +3188,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E109">
-        <f>I106*0.2</f>
-        <v>32.326000000000001</v>
-      </c>
-      <c r="F109">
-        <f t="shared" si="0"/>
         <v>27.867241379310347</v>
+      </c>
+      <c r="F109" t="s">
+        <v>29</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -3049,24 +3211,489 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E110">
-        <f>0.35*I106</f>
-        <v>56.570499999999996</v>
-      </c>
-      <c r="F110">
-        <f t="shared" si="0"/>
         <v>48.7676724137931</v>
       </c>
+      <c r="F110" t="s">
+        <v>29</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" t="s">
+        <v>168</v>
+      </c>
+      <c r="C112" t="s">
+        <v>172</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0.53</v>
+      </c>
       <c r="E112">
-        <f>SUM(E107:E110)</f>
-        <v>187.49079999999998</v>
-      </c>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+        <f>0.17*I113</f>
+        <v>29.580000000000002</v>
+      </c>
+      <c r="F112" t="s">
+        <v>174</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J112" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>167</v>
+      </c>
+      <c r="B113" t="s">
+        <v>169</v>
+      </c>
+      <c r="C113" t="s">
+        <v>94</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.6</v>
+      </c>
       <c r="E113">
-        <f>I106/E112</f>
-        <v>0.86206896551724144</v>
+        <f>0.04*I113</f>
+        <v>6.96</v>
+      </c>
+      <c r="F113" t="s">
+        <v>173</v>
+      </c>
+      <c r="G113">
+        <v>11.66</v>
+      </c>
+      <c r="I113">
+        <v>174</v>
+      </c>
+      <c r="J113" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>167</v>
+      </c>
+      <c r="B114" t="s">
+        <v>170</v>
+      </c>
+      <c r="C114" t="s">
+        <v>67</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E114">
+        <f>0.12*I113</f>
+        <v>20.88</v>
+      </c>
+      <c r="F114" t="s">
+        <v>173</v>
+      </c>
+      <c r="G114">
+        <v>30.33</v>
+      </c>
+      <c r="I114">
+        <v>120.3</v>
+      </c>
+      <c r="J114" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>167</v>
+      </c>
+      <c r="B115" t="s">
+        <v>171</v>
+      </c>
+      <c r="C115" t="s">
+        <v>133</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="E115">
+        <f>0.22*I113</f>
+        <v>38.28</v>
+      </c>
+      <c r="F115" t="s">
+        <v>174</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <f>I114-I113</f>
+        <v>-53.7</v>
+      </c>
+      <c r="J115" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>175</v>
+      </c>
+      <c r="B118" t="s">
+        <v>176</v>
+      </c>
+      <c r="C118" t="s">
+        <v>42</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E118">
+        <f>0.2*I114</f>
+        <v>24.060000000000002</v>
+      </c>
+      <c r="F118" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118">
+        <v>51.72</v>
+      </c>
+      <c r="L118" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>175</v>
+      </c>
+      <c r="B119" t="s">
+        <v>177</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E119" t="s">
+        <v>178</v>
+      </c>
+      <c r="F119" t="s">
+        <v>28</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>175</v>
+      </c>
+      <c r="B120" t="s">
+        <v>179</v>
+      </c>
+      <c r="C120" t="s">
+        <v>131</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E120">
+        <f>0.07*I114</f>
+        <v>8.4210000000000012</v>
+      </c>
+      <c r="F120" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>175</v>
+      </c>
+      <c r="B121" t="s">
+        <v>180</v>
+      </c>
+      <c r="C121" t="s">
+        <v>183</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="E121">
+        <f>0.25*I114</f>
+        <v>30.074999999999999</v>
+      </c>
+      <c r="F121" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121">
+        <v>72</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J121" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>175</v>
+      </c>
+      <c r="B122" t="s">
+        <v>181</v>
+      </c>
+      <c r="C122" t="s">
+        <v>115</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E122">
+        <f>0.2*I114</f>
+        <v>24.060000000000002</v>
+      </c>
+      <c r="F122" t="s">
+        <v>29</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>120.3</v>
+      </c>
+      <c r="J122" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>175</v>
+      </c>
+      <c r="B123" t="s">
+        <v>182</v>
+      </c>
+      <c r="C123" t="s">
+        <v>108</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E123">
+        <v>8.25</v>
+      </c>
+      <c r="F123" t="s">
+        <v>29</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>245.37</v>
+      </c>
+      <c r="J123" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>175</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D124" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E124" s="6">
+        <v>28.22</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G124">
+        <v>73.37</v>
+      </c>
+      <c r="I124">
+        <f>I123-I122</f>
+        <v>125.07000000000001</v>
+      </c>
+      <c r="J124" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>175</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D125" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E125" s="6">
+        <v>20</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G125">
+        <v>57</v>
+      </c>
+      <c r="L125" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>175</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D126" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E126" s="6">
+        <v>20</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L127" s="5"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>190</v>
+      </c>
+      <c r="B129" t="s">
+        <v>191</v>
+      </c>
+      <c r="C129" t="s">
+        <v>192</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="E129">
+        <v>16.873303571428572</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J129" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>190</v>
+      </c>
+      <c r="B130" t="s">
+        <v>193</v>
+      </c>
+      <c r="C130" t="s">
+        <v>194</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E130">
+        <v>33.746607142857144</v>
+      </c>
+      <c r="I130">
+        <v>145.37</v>
+      </c>
+      <c r="J130" t="s">
+        <v>31</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>190</v>
+      </c>
+      <c r="B131" t="s">
+        <v>195</v>
+      </c>
+      <c r="C131" t="s">
+        <v>67</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="E131">
+        <v>6.4897321428571431</v>
+      </c>
+      <c r="J131" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>190</v>
+      </c>
+      <c r="B132" t="s">
+        <v>197</v>
+      </c>
+      <c r="C132" t="s">
+        <v>196</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="E132">
+        <v>46.72607142857143</v>
+      </c>
+      <c r="I132">
+        <f>I131-I130</f>
+        <v>-145.37</v>
+      </c>
+      <c r="J132" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>190</v>
+      </c>
+      <c r="B133" t="s">
+        <v>198</v>
+      </c>
+      <c r="C133" t="s">
+        <v>75</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E133">
+        <v>41.534285714285708</v>
       </c>
     </row>
   </sheetData>

--- a/NHL PREDICTIONS.xlsx
+++ b/NHL PREDICTIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nic\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0117D0-F0D8-45EA-BA8C-2E8A479FB5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77CE006-6F45-4185-BB0D-DCBF999C0A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24292E02-2EE0-40C4-8B7E-D5191A53C003}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="281">
   <si>
     <t>Random Forest</t>
   </si>
@@ -636,6 +636,249 @@
   </si>
   <si>
     <t>Withdrawal 100$</t>
+  </si>
+  <si>
+    <t>29-01-2025</t>
+  </si>
+  <si>
+    <t>LA vs Panters</t>
+  </si>
+  <si>
+    <t>Floride</t>
+  </si>
+  <si>
+    <t>New jersy</t>
+  </si>
+  <si>
+    <t>Flyer vs New jersey</t>
+  </si>
+  <si>
+    <t>Wild vs Toronto</t>
+  </si>
+  <si>
+    <t>Vancouver vs Nashville</t>
+  </si>
+  <si>
+    <t>Pitt vs Utah</t>
+  </si>
+  <si>
+    <t>Devils vs Flyer</t>
+  </si>
+  <si>
+    <t>Flyers</t>
+  </si>
+  <si>
+    <t>Kings vs Redwing</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>Canucks vs Blues</t>
+  </si>
+  <si>
+    <t>St louis</t>
+  </si>
+  <si>
+    <t>No bets</t>
+  </si>
+  <si>
+    <t>Kraken vs Oilers</t>
+  </si>
+  <si>
+    <t>Penguins vs Shakrs</t>
+  </si>
+  <si>
+    <t>Penguins</t>
+  </si>
+  <si>
+    <t>27-01-2025</t>
+  </si>
+  <si>
+    <t>Bet Kraken</t>
+  </si>
+  <si>
+    <t>Bet San jose</t>
+  </si>
+  <si>
+    <t>28-01-2025</t>
+  </si>
+  <si>
+    <t>Bos vs buff</t>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>Winni Montrela</t>
+  </si>
+  <si>
+    <t>Montrea</t>
+  </si>
+  <si>
+    <t>hurricanes vs rangers</t>
+  </si>
+  <si>
+    <t>rangers</t>
+  </si>
+  <si>
+    <t>Black vs Tempa</t>
+  </si>
+  <si>
+    <t>avalanche vs islanders</t>
+  </si>
+  <si>
+    <t>islanders</t>
+  </si>
+  <si>
+    <t>was vs calgary</t>
+  </si>
+  <si>
+    <t>Calgary</t>
+  </si>
+  <si>
+    <t>Ana vs Krak</t>
+  </si>
+  <si>
+    <t>Stars vs Knight</t>
+  </si>
+  <si>
+    <t>Bet black</t>
+  </si>
+  <si>
+    <t>30-1-2025</t>
+  </si>
+  <si>
+    <t>Seattle vs Sharks</t>
+  </si>
+  <si>
+    <t>Knights vs colombus</t>
+  </si>
+  <si>
+    <t>Edmonton vs Red wings</t>
+  </si>
+  <si>
+    <t>Fluers vs Islanders</t>
+  </si>
+  <si>
+    <t>tempa vs LA</t>
+  </si>
+  <si>
+    <t>Ottawa vs Washing</t>
+  </si>
+  <si>
+    <t>Montreal vs Minn</t>
+  </si>
+  <si>
+    <t>Chicago vs Black</t>
+  </si>
+  <si>
+    <t>Bos vs Win</t>
+  </si>
+  <si>
+    <t>31-1-2025</t>
+  </si>
+  <si>
+    <t>Sabres vs Nash</t>
+  </si>
+  <si>
+    <t>Vancouver vs Stars</t>
+  </si>
+  <si>
+    <t>St louis vs Avalanche</t>
+  </si>
+  <si>
+    <t>Colombus vs Utha</t>
+  </si>
+  <si>
+    <t>1-2-2025</t>
+  </si>
+  <si>
+    <t>Black vs Panthers</t>
+  </si>
+  <si>
+    <t>boston</t>
+  </si>
+  <si>
+    <t>Panthers</t>
+  </si>
+  <si>
+    <t>Pits</t>
+  </si>
+  <si>
+    <t>Ptsburg vs Nashville</t>
+  </si>
+  <si>
+    <t>Caro</t>
+  </si>
+  <si>
+    <t>Washing</t>
+  </si>
+  <si>
+    <t>Kings vs Hurrica</t>
+  </si>
+  <si>
+    <t>Islander vs Tempa</t>
+  </si>
+  <si>
+    <t>Jets vs Capitals</t>
+  </si>
+  <si>
+    <t>Wild vs Senators</t>
+  </si>
+  <si>
+    <t>Maple vs Oilers</t>
+  </si>
+  <si>
+    <t>Red Wings vs Flames</t>
+  </si>
+  <si>
+    <t>2-2-2025</t>
+  </si>
+  <si>
+    <t>Devils Sabres</t>
+  </si>
+  <si>
+    <t>Flyer Avalanche</t>
+  </si>
+  <si>
+    <t>Canadiens Duck</t>
+  </si>
+  <si>
+    <t>Islanders Panthers</t>
+  </si>
+  <si>
+    <t>Golden vs Rangers</t>
+  </si>
+  <si>
+    <t>Blue vs stars</t>
+  </si>
+  <si>
+    <t>Blues vs Utah</t>
+  </si>
+  <si>
+    <t>Red wings vs Canucks</t>
+  </si>
+  <si>
+    <t>Flames vs Kraken</t>
+  </si>
+  <si>
+    <t>Bet Flyer</t>
+  </si>
+  <si>
+    <t>Bet Islanders</t>
+  </si>
+  <si>
+    <t>Bet rangers</t>
+  </si>
+  <si>
+    <t>Bet colombus</t>
+  </si>
+  <si>
+    <t>Canuks</t>
+  </si>
+  <si>
+    <t>Bet Calgary</t>
   </si>
 </sst>
 </file>
@@ -1044,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99FD346-7652-46AB-AEE9-2F50AD839A19}">
-  <dimension ref="A1:L133"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="H201" sqref="H201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3602,6 +3845,12 @@
       <c r="E129">
         <v>16.873303571428572</v>
       </c>
+      <c r="F129" t="s">
+        <v>29</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
       <c r="I129" s="1">
         <v>0.5</v>
       </c>
@@ -3625,6 +3874,12 @@
       <c r="E130">
         <v>33.746607142857144</v>
       </c>
+      <c r="F130" t="s">
+        <v>173</v>
+      </c>
+      <c r="G130">
+        <v>58.38</v>
+      </c>
       <c r="I130">
         <v>145.37</v>
       </c>
@@ -3651,6 +3906,16 @@
       <c r="E131">
         <v>6.4897321428571431</v>
       </c>
+      <c r="F131" t="s">
+        <v>173</v>
+      </c>
+      <c r="G131">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I131">
+        <f>SUM(G129:G133)</f>
+        <v>144.44</v>
+      </c>
       <c r="J131" t="s">
         <v>32</v>
       </c>
@@ -3671,9 +3936,15 @@
       <c r="E132">
         <v>46.72607142857143</v>
       </c>
+      <c r="F132" t="s">
+        <v>29</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
       <c r="I132">
         <f>I131-I130</f>
-        <v>-145.37</v>
+        <v>-0.93000000000000682</v>
       </c>
       <c r="J132" t="s">
         <v>33</v>
@@ -3694,6 +3965,1132 @@
       </c>
       <c r="E133">
         <v>41.534285714285708</v>
+      </c>
+      <c r="F133" t="s">
+        <v>28</v>
+      </c>
+      <c r="G133">
+        <v>76.260000000000005</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>218</v>
+      </c>
+      <c r="B137" t="s">
+        <v>208</v>
+      </c>
+      <c r="C137" t="s">
+        <v>209</v>
+      </c>
+      <c r="E137">
+        <v>25.919999999999998</v>
+      </c>
+      <c r="F137" t="s">
+        <v>28</v>
+      </c>
+      <c r="G137">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>218</v>
+      </c>
+      <c r="B138" t="s">
+        <v>210</v>
+      </c>
+      <c r="C138" t="s">
+        <v>211</v>
+      </c>
+      <c r="E138">
+        <v>28.8</v>
+      </c>
+      <c r="F138" t="s">
+        <v>28</v>
+      </c>
+      <c r="G138">
+        <v>64</v>
+      </c>
+      <c r="J138" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>218</v>
+      </c>
+      <c r="B139" t="s">
+        <v>212</v>
+      </c>
+      <c r="C139" t="s">
+        <v>213</v>
+      </c>
+      <c r="E139" t="s">
+        <v>214</v>
+      </c>
+      <c r="I139">
+        <v>144.44</v>
+      </c>
+      <c r="J139" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>218</v>
+      </c>
+      <c r="B140" t="s">
+        <v>215</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140">
+        <v>15.84</v>
+      </c>
+      <c r="F140" t="s">
+        <v>29</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>212.36</v>
+      </c>
+      <c r="J140" t="s">
+        <v>32</v>
+      </c>
+      <c r="L140" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>218</v>
+      </c>
+      <c r="B141" t="s">
+        <v>216</v>
+      </c>
+      <c r="C141" t="s">
+        <v>217</v>
+      </c>
+      <c r="E141">
+        <v>11.52</v>
+      </c>
+      <c r="F141" t="s">
+        <v>28</v>
+      </c>
+      <c r="G141">
+        <v>28.8</v>
+      </c>
+      <c r="I141">
+        <f>I140-I139</f>
+        <v>67.920000000000016</v>
+      </c>
+      <c r="J141" t="s">
+        <v>33</v>
+      </c>
+      <c r="L141" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <f>SUM(E137:E141)</f>
+        <v>82.08</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>221</v>
+      </c>
+      <c r="B145" t="s">
+        <v>222</v>
+      </c>
+      <c r="C145" t="s">
+        <v>223</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="E145">
+        <v>32.081871345029235</v>
+      </c>
+      <c r="F145" t="s">
+        <v>28</v>
+      </c>
+      <c r="G145">
+        <v>62.47</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>221</v>
+      </c>
+      <c r="B146" t="s">
+        <v>224</v>
+      </c>
+      <c r="C146" t="s">
+        <v>225</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E146">
+        <v>27.146198830409357</v>
+      </c>
+      <c r="F146" t="s">
+        <v>29</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>221</v>
+      </c>
+      <c r="B147" t="s">
+        <v>226</v>
+      </c>
+      <c r="C147" t="s">
+        <v>227</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="E147">
+        <v>17.274853801169591</v>
+      </c>
+      <c r="F147" t="s">
+        <v>29</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="J147" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>221</v>
+      </c>
+      <c r="B148" t="s">
+        <v>228</v>
+      </c>
+      <c r="C148" t="s">
+        <v>43</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="E148">
+        <v>18.508771929824558</v>
+      </c>
+      <c r="F148" t="s">
+        <v>28</v>
+      </c>
+      <c r="G148">
+        <v>45</v>
+      </c>
+      <c r="I148">
+        <v>212.36</v>
+      </c>
+      <c r="J148" t="s">
+        <v>31</v>
+      </c>
+      <c r="L148" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>221</v>
+      </c>
+      <c r="B149" t="s">
+        <v>229</v>
+      </c>
+      <c r="C149" t="s">
+        <v>230</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E149">
+        <v>28.380116959064328</v>
+      </c>
+      <c r="F149" t="s">
+        <v>28</v>
+      </c>
+      <c r="G149">
+        <v>66</v>
+      </c>
+      <c r="I149">
+        <v>173.47</v>
+      </c>
+      <c r="J149" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>221</v>
+      </c>
+      <c r="B150" t="s">
+        <v>231</v>
+      </c>
+      <c r="C150" t="s">
+        <v>232</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="E150">
+        <v>30.847953216374268</v>
+      </c>
+      <c r="F150" t="s">
+        <v>29</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <f>I149-I148</f>
+        <v>-38.890000000000015</v>
+      </c>
+      <c r="J150" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>221</v>
+      </c>
+      <c r="B151" t="s">
+        <v>233</v>
+      </c>
+      <c r="C151" t="s">
+        <v>163</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E151">
+        <v>22.210526315789469</v>
+      </c>
+      <c r="F151" t="s">
+        <v>29</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>221</v>
+      </c>
+      <c r="B152" t="s">
+        <v>234</v>
+      </c>
+      <c r="C152" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="E152">
+        <v>34.549707602339183</v>
+      </c>
+      <c r="F152" t="s">
+        <v>29</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>200</v>
+      </c>
+      <c r="B156" t="s">
+        <v>201</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E156">
+        <v>54.47818181818181</v>
+      </c>
+      <c r="J156" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>200</v>
+      </c>
+      <c r="B157" t="s">
+        <v>204</v>
+      </c>
+      <c r="C157" t="s">
+        <v>203</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="E157">
+        <v>32.973636363636359</v>
+      </c>
+      <c r="I157">
+        <v>173.47</v>
+      </c>
+      <c r="J157" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>200</v>
+      </c>
+      <c r="B158" t="s">
+        <v>205</v>
+      </c>
+      <c r="C158" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E158">
+        <v>17.20363636363636</v>
+      </c>
+      <c r="J158" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>200</v>
+      </c>
+      <c r="B159" t="s">
+        <v>206</v>
+      </c>
+      <c r="C159" t="s">
+        <v>146</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="E159">
+        <v>30.106363636363632</v>
+      </c>
+      <c r="I159">
+        <f>I158-I157</f>
+        <v>-173.47</v>
+      </c>
+      <c r="J159" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>200</v>
+      </c>
+      <c r="B160" t="s">
+        <v>207</v>
+      </c>
+      <c r="C160" t="s">
+        <v>134</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E160">
+        <v>38.708181818181814</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <f>SUM(E156:E160)</f>
+        <v>173.46999999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>236</v>
+      </c>
+      <c r="B164" t="s">
+        <v>237</v>
+      </c>
+      <c r="E164">
+        <v>5</v>
+      </c>
+      <c r="F164" t="s">
+        <v>29</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>236</v>
+      </c>
+      <c r="B165" t="s">
+        <v>238</v>
+      </c>
+      <c r="E165">
+        <v>6</v>
+      </c>
+      <c r="F165" t="s">
+        <v>28</v>
+      </c>
+      <c r="G165">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>236</v>
+      </c>
+      <c r="B166" t="s">
+        <v>239</v>
+      </c>
+      <c r="E166">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>28</v>
+      </c>
+      <c r="G166">
+        <v>42.25</v>
+      </c>
+      <c r="J166" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>236</v>
+      </c>
+      <c r="B167" t="s">
+        <v>240</v>
+      </c>
+      <c r="E167">
+        <v>26</v>
+      </c>
+      <c r="F167" t="s">
+        <v>29</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="J167" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>236</v>
+      </c>
+      <c r="B168" t="s">
+        <v>241</v>
+      </c>
+      <c r="E168">
+        <v>19</v>
+      </c>
+      <c r="F168" t="s">
+        <v>28</v>
+      </c>
+      <c r="G168">
+        <v>31.66</v>
+      </c>
+      <c r="J168" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>236</v>
+      </c>
+      <c r="B169" t="s">
+        <v>242</v>
+      </c>
+      <c r="E169">
+        <v>14</v>
+      </c>
+      <c r="F169" t="s">
+        <v>28</v>
+      </c>
+      <c r="G169">
+        <v>26.72</v>
+      </c>
+      <c r="J169" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>236</v>
+      </c>
+      <c r="B170" t="s">
+        <v>243</v>
+      </c>
+      <c r="E170">
+        <v>14</v>
+      </c>
+      <c r="F170" t="s">
+        <v>29</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>236</v>
+      </c>
+      <c r="B171" t="s">
+        <v>244</v>
+      </c>
+      <c r="E171">
+        <v>10</v>
+      </c>
+      <c r="F171" t="s">
+        <v>29</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>236</v>
+      </c>
+      <c r="B172" t="s">
+        <v>245</v>
+      </c>
+      <c r="E172">
+        <v>30</v>
+      </c>
+      <c r="F172" t="s">
+        <v>29</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>246</v>
+      </c>
+      <c r="B175" t="s">
+        <v>247</v>
+      </c>
+      <c r="C175" t="s">
+        <v>151</v>
+      </c>
+      <c r="D175" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="E175">
+        <f>0.3*I177</f>
+        <v>36</v>
+      </c>
+      <c r="F175">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>246</v>
+      </c>
+      <c r="B176" t="s">
+        <v>248</v>
+      </c>
+      <c r="C176" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="E176">
+        <f>0.24*I177</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="F176">
+        <v>46.05</v>
+      </c>
+      <c r="I176" s="1">
+        <v>1</v>
+      </c>
+      <c r="J176" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>246</v>
+      </c>
+      <c r="B177" t="s">
+        <v>249</v>
+      </c>
+      <c r="C177" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E177">
+        <f>0.13*I177</f>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="F177">
+        <v>24.42</v>
+      </c>
+      <c r="I177">
+        <v>120</v>
+      </c>
+      <c r="J177" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>246</v>
+      </c>
+      <c r="B178" t="s">
+        <v>250</v>
+      </c>
+      <c r="C178" t="s">
+        <v>70</v>
+      </c>
+      <c r="D178" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="E178" t="s">
+        <v>83</v>
+      </c>
+      <c r="I178">
+        <v>183.6</v>
+      </c>
+      <c r="J178" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <f>I178-I177</f>
+        <v>63.599999999999994</v>
+      </c>
+      <c r="J179" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>251</v>
+      </c>
+      <c r="B181" t="s">
+        <v>252</v>
+      </c>
+      <c r="C181" t="s">
+        <v>254</v>
+      </c>
+      <c r="D181" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="E181">
+        <v>23</v>
+      </c>
+      <c r="F181" t="s">
+        <v>29</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>251</v>
+      </c>
+      <c r="B182" t="s">
+        <v>253</v>
+      </c>
+      <c r="C182" t="s">
+        <v>42</v>
+      </c>
+      <c r="D182" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="E182">
+        <v>45</v>
+      </c>
+      <c r="F182" t="s">
+        <v>28</v>
+      </c>
+      <c r="G182">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>251</v>
+      </c>
+      <c r="B183" t="s">
+        <v>256</v>
+      </c>
+      <c r="C183" t="s">
+        <v>255</v>
+      </c>
+      <c r="D183" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="E183">
+        <f>0.27*I178</f>
+        <v>49.572000000000003</v>
+      </c>
+      <c r="F183" t="s">
+        <v>28</v>
+      </c>
+      <c r="G183">
+        <v>100</v>
+      </c>
+      <c r="I183" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="J183" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>251</v>
+      </c>
+      <c r="B184" t="s">
+        <v>259</v>
+      </c>
+      <c r="C184" t="s">
+        <v>257</v>
+      </c>
+      <c r="D184" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="E184">
+        <f>0.17*I178</f>
+        <v>31.212</v>
+      </c>
+      <c r="F184" t="s">
+        <v>29</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>183.6</v>
+      </c>
+      <c r="J184" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>251</v>
+      </c>
+      <c r="B185" t="s">
+        <v>260</v>
+      </c>
+      <c r="C185" t="s">
+        <v>43</v>
+      </c>
+      <c r="D185" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E185" t="s">
+        <v>83</v>
+      </c>
+      <c r="I185">
+        <v>178.1</v>
+      </c>
+      <c r="J185" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>251</v>
+      </c>
+      <c r="B186" t="s">
+        <v>261</v>
+      </c>
+      <c r="C186" t="s">
+        <v>258</v>
+      </c>
+      <c r="D186" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E186" t="s">
+        <v>83</v>
+      </c>
+      <c r="I186">
+        <f>I185-I184</f>
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>251</v>
+      </c>
+      <c r="B187" t="s">
+        <v>262</v>
+      </c>
+      <c r="C187" t="s">
+        <v>194</v>
+      </c>
+      <c r="D187" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E187" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>251</v>
+      </c>
+      <c r="B188" t="s">
+        <v>263</v>
+      </c>
+      <c r="C188" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E188" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>251</v>
+      </c>
+      <c r="B189" t="s">
+        <v>264</v>
+      </c>
+      <c r="C189" t="s">
+        <v>232</v>
+      </c>
+      <c r="D189" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E189">
+        <f>0.27*I178</f>
+        <v>49.572000000000003</v>
+      </c>
+      <c r="F189" t="s">
+        <v>29</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>265</v>
+      </c>
+      <c r="B193" t="s">
+        <v>266</v>
+      </c>
+      <c r="C193" t="s">
+        <v>151</v>
+      </c>
+      <c r="D193" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="E193">
+        <f>0.1*I197</f>
+        <v>18.36</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>265</v>
+      </c>
+      <c r="B194" t="s">
+        <v>267</v>
+      </c>
+      <c r="C194" t="s">
+        <v>52</v>
+      </c>
+      <c r="D194" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E194">
+        <f>0.14*I197</f>
+        <v>25.704000000000001</v>
+      </c>
+      <c r="H194" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>265</v>
+      </c>
+      <c r="B195" t="s">
+        <v>268</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D195" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E195">
+        <f>0.07*I197</f>
+        <v>12.852</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>265</v>
+      </c>
+      <c r="B196" t="s">
+        <v>269</v>
+      </c>
+      <c r="C196" t="s">
+        <v>202</v>
+      </c>
+      <c r="D196" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E196">
+        <f>0.13*I197</f>
+        <v>23.867999999999999</v>
+      </c>
+      <c r="H196" t="s">
+        <v>276</v>
+      </c>
+      <c r="I196" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="J196" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>265</v>
+      </c>
+      <c r="B197" t="s">
+        <v>270</v>
+      </c>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E197">
+        <f>0.05*I197</f>
+        <v>9.18</v>
+      </c>
+      <c r="H197" t="s">
+        <v>277</v>
+      </c>
+      <c r="I197">
+        <v>183.6</v>
+      </c>
+      <c r="J197" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>265</v>
+      </c>
+      <c r="B198" t="s">
+        <v>271</v>
+      </c>
+      <c r="C198" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E198">
+        <f>0.05*I197</f>
+        <v>9.18</v>
+      </c>
+      <c r="H198" t="s">
+        <v>278</v>
+      </c>
+      <c r="J198" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>265</v>
+      </c>
+      <c r="B199" t="s">
+        <v>272</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D199" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="E199" t="s">
+        <v>83</v>
+      </c>
+      <c r="I199">
+        <f>I198-I197</f>
+        <v>-183.6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>265</v>
+      </c>
+      <c r="B200" t="s">
+        <v>273</v>
+      </c>
+      <c r="C200" t="s">
+        <v>279</v>
+      </c>
+      <c r="D200" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E200">
+        <f>0.07*I197</f>
+        <v>12.852</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>265</v>
+      </c>
+      <c r="B201" t="s">
+        <v>274</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D201" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E201">
+        <f>0.04*I197</f>
+        <v>7.3440000000000003</v>
+      </c>
+      <c r="H201" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
